--- a/TouchGFXCPP/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFXCPP/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -131,10 +131,22 @@
     <t xml:space="preserve">Widget Wildcard Characters</t>
   </si>
   <si>
-    <t xml:space="preserve">ResourceId1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Left</t>
+    <t xml:space="preserve">Default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verdana.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Large</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Center</t>
   </si>
   <si>
     <t xml:space="preserve">LTR</t>
@@ -1370,6 +1382,25 @@
       </c>
     </row>
     <row r="4" spans="2:16">
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
       <c r="L4" s="4" t="s">
         <v>9</v>
       </c>
@@ -1387,6 +1418,25 @@
       </c>
     </row>
     <row r="5" spans="2:16">
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5">
+        <v>40</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
       <c r="L5" s="7" t="s">
         <v>1</v>
       </c>
@@ -1402,6 +1452,25 @@
       <c r="P5" s="10"/>
     </row>
     <row r="6" spans="2:16">
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
       <c r="L6" s="7" t="s">
         <v>2</v>
       </c>
@@ -1549,16 +1618,19 @@
     </row>
     <row r="4">
       <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
